--- a/Python_dsa Learning.xlsx
+++ b/Python_dsa Learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006EAD8-1139-48F1-811F-B1D54047563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66044C-0745-4653-9144-6AD152EA830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="19" xr2:uid="{CF05F556-E63E-4629-9243-18AF42A1434B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{CF05F556-E63E-4629-9243-18AF42A1434B}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1268">
   <si>
     <t>Variables</t>
   </si>
@@ -10782,12 +10782,133 @@
   <si>
     <t>newnode</t>
   </si>
+  <si>
+    <t>maxi = -1</t>
+  </si>
+  <si>
+    <t>if mini &lt; maxi --&gt; maxi+1</t>
+  </si>
+  <si>
+    <t>--&gt;mini+1</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>fanta</t>
+  </si>
+  <si>
+    <t>teapowder</t>
+  </si>
+  <si>
+    <t>mini = -1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">maxi = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mini+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mini+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maxi+1==&gt; maxi = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mini+1</t>
+    </r>
+  </si>
+  <si>
+    <t>maxi = 1(hot.tea)</t>
+  </si>
+  <si>
+    <t>mini = 0(hot.coffee)</t>
+  </si>
+  <si>
+    <t>maxi = 2</t>
+  </si>
+  <si>
+    <t>--&gt; maxi+1 = 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="124">
+  <fonts count="126">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11618,6 +11739,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -11986,7 +12123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12512,6 +12649,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -14662,7 +14805,7 @@
       </c>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39" s="213" t="s">
+      <c r="C39" s="217" t="s">
         <v>533</v>
       </c>
       <c r="D39" s="91" t="s">
@@ -14678,7 +14821,7 @@
       </c>
     </row>
     <row r="40" spans="3:12" ht="18.600000000000001" thickBot="1">
-      <c r="C40" s="214"/>
+      <c r="C40" s="218"/>
       <c r="D40" s="94" t="s">
         <v>563</v>
       </c>
@@ -14692,18 +14835,18 @@
       </c>
     </row>
     <row r="41" spans="3:12" ht="36.6" customHeight="1">
-      <c r="C41" s="215" t="s">
+      <c r="C41" s="219" t="s">
         <v>534</v>
       </c>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="222" t="s">
         <v>566</v>
       </c>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="218"/>
-      <c r="J41" s="218"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="222"/>
       <c r="K41" s="96" t="s">
         <v>567</v>
       </c>
@@ -14712,7 +14855,7 @@
       </c>
     </row>
     <row r="42" spans="3:12" ht="18.600000000000001" thickBot="1">
-      <c r="C42" s="216"/>
+      <c r="C42" s="220"/>
       <c r="D42" s="89" t="s">
         <v>563</v>
       </c>
@@ -14793,15 +14936,15 @@
       <c r="C47" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="D47" s="217" t="s">
+      <c r="D47" s="221" t="s">
         <v>577</v>
       </c>
-      <c r="E47" s="217"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="217"/>
-      <c r="H47" s="217"/>
-      <c r="I47" s="217"/>
-      <c r="J47" s="217"/>
+      <c r="E47" s="221"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="221"/>
+      <c r="H47" s="221"/>
+      <c r="I47" s="221"/>
+      <c r="J47" s="221"/>
       <c r="K47" s="94" t="s">
         <v>578</v>
       </c>
@@ -16002,16 +16145,16 @@
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
       <c r="G5" s="122"/>
-      <c r="J5" s="219" t="s">
+      <c r="J5" s="223" t="s">
         <v>679</v>
       </c>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="223"/>
+      <c r="P5" s="223"/>
+      <c r="Q5" s="223"/>
     </row>
     <row r="6" spans="3:19" ht="20.399999999999999">
       <c r="D6" s="123" t="s">
@@ -16020,14 +16163,14 @@
       <c r="E6" s="122"/>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="219"/>
-      <c r="P6" s="219"/>
-      <c r="Q6" s="219"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
     </row>
     <row r="7" spans="3:19" ht="20.399999999999999">
       <c r="D7" s="123" t="s">
@@ -16036,14 +16179,14 @@
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="219"/>
-      <c r="O7" s="219"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="219"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
     </row>
     <row r="8" spans="3:19" ht="20.399999999999999">
       <c r="D8" s="123" t="s">
@@ -16084,20 +16227,20 @@
       <c r="K11"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="J12" s="222" t="s">
+      <c r="J12" s="226" t="s">
         <v>681</v>
       </c>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222" t="s">
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226" t="s">
         <v>682</v>
       </c>
-      <c r="O12" s="222"/>
-      <c r="P12" s="222"/>
-      <c r="Q12" s="222"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="226"/>
+      <c r="S12" s="226"/>
     </row>
     <row r="13" spans="3:19">
       <c r="D13" s="120" t="s">
@@ -16105,20 +16248,20 @@
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="119"/>
-      <c r="J13" s="221" t="s">
+      <c r="J13" s="225" t="s">
         <v>683</v>
       </c>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221" t="s">
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="225"/>
+      <c r="N13" s="225" t="s">
         <v>684</v>
       </c>
-      <c r="O13" s="221"/>
-      <c r="P13" s="221"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="225"/>
+      <c r="Q13" s="225"/>
+      <c r="R13" s="225"/>
+      <c r="S13" s="225"/>
     </row>
     <row r="14" spans="3:19">
       <c r="D14" s="126" t="s">
@@ -16126,44 +16269,44 @@
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="119"/>
-      <c r="J14" s="220" t="s">
+      <c r="J14" s="224" t="s">
         <v>685</v>
       </c>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220" t="s">
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224" t="s">
         <v>686</v>
       </c>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="220"/>
-      <c r="S14" s="220"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="220"/>
-      <c r="S15" s="220"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="224"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="224"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="J16" s="220"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="220"/>
-      <c r="S16" s="220"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="224"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="2" t="s">
@@ -19279,15 +19422,17 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A3E82-711F-44DD-95F7-D0DDF7E66E38}">
-  <dimension ref="E2:S33"/>
+  <dimension ref="E2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:19">
@@ -19464,20 +19609,26 @@
       <c r="R16" s="110"/>
       <c r="S16" s="111"/>
     </row>
-    <row r="18" spans="5:9">
+    <row r="18" spans="5:19">
       <c r="E18" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="19" spans="5:9">
+      <c r="O18" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19">
       <c r="F19" t="s">
         <v>1216</v>
       </c>
       <c r="H19" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="20" spans="5:9">
+      <c r="P19" s="210" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19">
       <c r="F20" t="s">
         <v>1208</v>
       </c>
@@ -19488,7 +19639,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="21" spans="5:9">
+    <row r="21" spans="5:19" ht="15" thickBot="1">
       <c r="F21" t="s">
         <v>1221</v>
       </c>
@@ -19499,7 +19650,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="5:19" ht="15" thickBot="1">
       <c r="F22" t="s">
         <v>1240</v>
       </c>
@@ -19509,8 +19660,11 @@
       <c r="H22" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="23" spans="5:9">
+      <c r="P22" s="213" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="23" spans="5:19">
       <c r="F23" t="s">
         <v>1241</v>
       </c>
@@ -19520,18 +19674,36 @@
       <c r="H23" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="26" spans="5:9">
+      <c r="P23" s="205" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="5:19" ht="15" thickBot="1"/>
+    <row r="25" spans="5:19" ht="15" thickBot="1">
+      <c r="N25" s="213" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R25" s="213" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="26" spans="5:19">
       <c r="E26" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="27" spans="5:9">
+      <c r="N26" s="214" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="27" spans="5:19">
       <c r="F27" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="28" spans="5:9">
+      <c r="N27" s="216" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="28" spans="5:19">
       <c r="E28" t="s">
         <v>1243</v>
       </c>
@@ -19544,8 +19716,11 @@
       <c r="H28" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="29" spans="5:9">
+      <c r="N28" s="215" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="29" spans="5:19" ht="15" thickBot="1">
       <c r="E29" t="s">
         <v>1208</v>
       </c>
@@ -19559,7 +19734,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="5:19" ht="15" thickBot="1">
       <c r="E30" t="s">
         <v>1221</v>
       </c>
@@ -19575,13 +19750,31 @@
       <c r="I30" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="31" spans="5:9">
+      <c r="M30" s="213" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O30" s="213" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q30" s="213" t="s">
+        <v>1256</v>
+      </c>
+      <c r="S30" s="213" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="31" spans="5:19">
       <c r="F31" s="205" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="32" spans="5:9">
+      <c r="M31" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="32" spans="5:19">
       <c r="E32" t="s">
         <v>1240</v>
       </c>
@@ -19597,8 +19790,14 @@
       <c r="I32" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="33" spans="5:8">
+      <c r="M32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" ht="15" thickBot="1">
       <c r="E33" t="s">
         <v>1241</v>
       </c>
@@ -19610,6 +19809,32 @@
       </c>
       <c r="H33" t="s">
         <v>1243</v>
+      </c>
+      <c r="M33" s="210" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O33" s="215" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="15" thickBot="1">
+      <c r="M34" s="213" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15">
+      <c r="M35" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15">
+      <c r="M36" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15">
+      <c r="M37" s="210" t="s">
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -22040,8 +22265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE12111-D0E2-48D6-B8A9-30AEC4211B53}">
   <dimension ref="C3:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22516,6 +22741,13 @@
       <c r="D14" s="33" t="s">
         <v>345</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>2^M14</f>
+        <v>1</v>
+      </c>
       <c r="R14">
         <f>R13+1</f>
         <v>868</v>
@@ -22532,42 +22764,79 @@
       <c r="D15" s="35" t="s">
         <v>347</v>
       </c>
+      <c r="L15">
+        <f>36*2.5</f>
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N17" si="8">2^M15</f>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f>SUM($N$14:N15)</f>
+        <v>3</v>
+      </c>
       <c r="R15">
-        <f t="shared" ref="R15:R26" si="8">R14+1</f>
+        <f t="shared" ref="R15:R26" si="9">R14+1</f>
         <v>869</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S27" si="9">MOD(R15,$Q$4)</f>
+        <f t="shared" ref="S15:S27" si="10">MOD(R15,$Q$4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="3:31">
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f>SUM($N$14:N16)</f>
+        <v>7</v>
+      </c>
       <c r="R16">
+        <f t="shared" si="9"/>
+        <v>870</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="8"/>
-        <v>870</v>
-      </c>
-      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <f>SUM($N$14:N17)</f>
+        <v>15</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19">
-      <c r="R17">
-        <f t="shared" si="8"/>
         <v>871</v>
       </c>
       <c r="S17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="3:19">
       <c r="R18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>872</v>
       </c>
       <c r="S18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -22582,11 +22851,11 @@
         <v>175</v>
       </c>
       <c r="R19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>873</v>
       </c>
       <c r="S19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -22601,11 +22870,11 @@
         <v>350</v>
       </c>
       <c r="R20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>874</v>
       </c>
       <c r="S20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -22620,11 +22889,11 @@
         <v>352</v>
       </c>
       <c r="R21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>875</v>
       </c>
       <c r="S21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -22639,11 +22908,11 @@
         <v>354</v>
       </c>
       <c r="R22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>876</v>
       </c>
       <c r="S22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
@@ -22658,11 +22927,11 @@
         <v>356</v>
       </c>
       <c r="R23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>877</v>
       </c>
       <c r="S23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
@@ -22677,11 +22946,11 @@
         <v>358</v>
       </c>
       <c r="R24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>878</v>
       </c>
       <c r="S24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
@@ -22696,11 +22965,11 @@
         <v>360</v>
       </c>
       <c r="R25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>879</v>
       </c>
       <c r="S25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
@@ -22715,11 +22984,11 @@
         <v>362</v>
       </c>
       <c r="R26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>880</v>
       </c>
       <c r="S26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
@@ -22737,7 +23006,7 @@
         <v>1733</v>
       </c>
       <c r="S27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>866</v>
       </c>
     </row>

--- a/Python_dsa Learning.xlsx
+++ b/Python_dsa Learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66044C-0745-4653-9144-6AD152EA830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0261492-4A38-4185-99AB-36B468E7460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{CF05F556-E63E-4629-9243-18AF42A1434B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="22" xr2:uid="{CF05F556-E63E-4629-9243-18AF42A1434B}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="numpy str" sheetId="19" r:id="rId18"/>
     <sheet name="numpy lin algbra" sheetId="20" r:id="rId19"/>
     <sheet name="ll" sheetId="21" r:id="rId20"/>
+    <sheet name="dijkstra" sheetId="22" r:id="rId21"/>
+    <sheet name="bellman" sheetId="23" r:id="rId22"/>
+    <sheet name="floyd" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1387">
   <si>
     <t>Variables</t>
   </si>
@@ -10903,12 +10906,1858 @@
   <si>
     <t>--&gt; maxi+1 = 2</t>
   </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Edges</t>
+  </si>
+  <si>
+    <t>Distances</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('A', 'C'): 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('B', 'C'): 6, </t>
+  </si>
+  <si>
+    <t>('B', 'D'): 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('B', 'E'): 3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('C', 'F'): 8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('D', 'E'): 4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">('E', 'G'): 9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A': ['B', 'C'], </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B': ['C', 'D', 'E'], </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C': ['F'], </t>
+  </si>
+  <si>
+    <t>D': ['E'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'E': ['G'], </t>
+  </si>
+  <si>
+    <t>F': ['G']</t>
+  </si>
+  <si>
+    <t>'G'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'E'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'F'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'C'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'B'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'D'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('A', 'B'): 2,</t>
+  </si>
+  <si>
+    <t>('F', 'G'): 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visited </t>
+  </si>
+  <si>
+    <t>{ initial : 0 }</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>{val:list}</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>set(graph nodes)</t>
+  </si>
+  <si>
+    <t>dijkstra(graph, initial = "A")</t>
+  </si>
+  <si>
+    <t>A : 0</t>
+  </si>
+  <si>
+    <t>nodes = all Nodes</t>
+  </si>
+  <si>
+    <t>node in Nodes</t>
+  </si>
+  <si>
+    <t>while Nodes</t>
+  </si>
+  <si>
+    <t>if node in visi</t>
+  </si>
+  <si>
+    <t>if minnode = None</t>
+  </si>
+  <si>
+    <t>minnode =None</t>
+  </si>
+  <si>
+    <t>visit[node] &lt; visi[minnode]</t>
+  </si>
+  <si>
+    <t>ninnode = node</t>
+  </si>
+  <si>
+    <t>when node A</t>
+  </si>
+  <si>
+    <t>minNode = A</t>
+  </si>
+  <si>
+    <t>curr wt = visi[A] = 0</t>
+  </si>
+  <si>
+    <t>B : 0+2</t>
+  </si>
+  <si>
+    <t>C : 0+5</t>
+  </si>
+  <si>
+    <t>B : A(minNode)</t>
+  </si>
+  <si>
+    <t>remove node</t>
+  </si>
+  <si>
+    <t>A removed from Nodes</t>
+  </si>
+  <si>
+    <t>node = C</t>
+  </si>
+  <si>
+    <t>minNode = C</t>
+  </si>
+  <si>
+    <t>minnode = None</t>
+  </si>
+  <si>
+    <t>C : A(minNode)</t>
+  </si>
+  <si>
+    <t>vis[B] &lt; vi[C] is (2&lt; 5)</t>
+  </si>
+  <si>
+    <t>minNode = B</t>
+  </si>
+  <si>
+    <t>B removed from Nodes</t>
+  </si>
+  <si>
+    <t>curr wt = visi[B] = 2</t>
+  </si>
+  <si>
+    <t>D : 0+2+1=3</t>
+  </si>
+  <si>
+    <t>D : B(minNode)</t>
+  </si>
+  <si>
+    <t>E : 0+2+3=5</t>
+  </si>
+  <si>
+    <t>E : B(minNode)</t>
+  </si>
+  <si>
+    <t>G : E(minNode)</t>
+  </si>
+  <si>
+    <t>G : 0+2+3+9=14</t>
+  </si>
+  <si>
+    <t>F : 0+5+8=13</t>
+  </si>
+  <si>
+    <t>F : C(minNode)</t>
+  </si>
+  <si>
+    <t>vertices</t>
+  </si>
+  <si>
+    <t>total nodes</t>
+  </si>
+  <si>
+    <t>each node name</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>a--&gt; b, weight</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START FROM </t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>E (0)</t>
+  </si>
+  <si>
+    <t>TOTAL VERTICES - 1 LOOP</t>
+  </si>
+  <si>
+    <t>FOR  each item in Graph</t>
+  </si>
+  <si>
+    <t>the distances are from E</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHECK IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist(E)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not equal to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist(E)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(E--&gt;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dist(B)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> dist(B) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist(E) + (E--&gt;B)</t>
+    </r>
+  </si>
+  <si>
+    <t>=0+4 = 4</t>
+  </si>
+  <si>
+    <t>=0+2 = 2</t>
+  </si>
+  <si>
+    <t>iter 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHECK IF </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not equal to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B--&gt;A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dist(A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> dist(A) = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist(B) + (B--&gt;A)</t>
+    </r>
+  </si>
+  <si>
+    <t>=4+3=7</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>=2+2 = 4</t>
+  </si>
+  <si>
+    <t>=2+1=3</t>
+  </si>
+  <si>
+    <t>iter 2</t>
+  </si>
+  <si>
+    <t>iter 3</t>
+  </si>
+  <si>
+    <t>=3+3=6</t>
+  </si>
+  <si>
+    <t>iter 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9EFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dijkstra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFEE80"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>graph,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9EFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>initial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFEE80"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    visited </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{initial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF628C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>defaultdict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    nodes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(graph.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9EFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        minNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF628C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> minNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF628C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    minNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> node</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>minNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> minNode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF628C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>minNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        currentWeight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>minNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> edge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>graph.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9EFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>minNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            weight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> currentWeight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>graph.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9EFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>minNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF9EFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> edge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> weight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> weight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>minNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF9D00"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFE1EFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> path</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="126">
+  <fonts count="142">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11755,8 +13604,124 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF9D00"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9EFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFC600"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFEE80"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFE1EFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF628C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11868,6 +13833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12123,7 +14094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12655,6 +14626,13 @@
     <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="126" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="60" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -12684,6 +14662,58 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13795,6 +15825,1283 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F84FEF8-8A58-2477-6CB9-DBFCDCCF58F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="1379220"/>
+          <a:ext cx="655320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D487BE0-4A87-4147-A986-A4AD14A37A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2171700" y="1493520"/>
+          <a:ext cx="7620" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292541</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CFE16C-C446-4188-B337-6AD9509F3604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3921649" y="1512736"/>
+          <a:ext cx="15240" cy="506233"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>178241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41DC917-4551-4DC1-A651-90710CA3C929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057608" y="2052430"/>
+          <a:ext cx="601980" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97278906-75FD-4A93-88DA-4FB7A6F88989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3054626" y="2268110"/>
+          <a:ext cx="586740" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895176E0-8AD5-4E17-B67D-770801CD9E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3421380" y="1798320"/>
+          <a:ext cx="411480" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49704F08-F4F6-4C1A-8510-8408B24F4A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3459480" y="1402080"/>
+          <a:ext cx="381000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BB45F4-9932-488D-8290-81AE473B6A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240280" y="1455420"/>
+          <a:ext cx="1005840" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D14363E-1780-42ED-AF11-88720D4738FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2996648" y="1397773"/>
+          <a:ext cx="655320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADB4D1B-5771-4440-8B14-8057D3B903EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2768048" y="1512736"/>
+          <a:ext cx="7620" cy="577463"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277301</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292541</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77A88-E527-4D44-874F-537E72F1CF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3921649" y="3222266"/>
+          <a:ext cx="15240" cy="506233"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1D8291-A12A-4AD5-858D-CA6E7AC845E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057608" y="2105439"/>
+          <a:ext cx="601980" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589722</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566862</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99A7BB2-DC26-4AEE-AC9C-C5F089CDF22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3014870" y="4030649"/>
+          <a:ext cx="586740" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5E865E-F87E-4B59-B779-A7FF1914D8F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4017728" y="1820186"/>
+          <a:ext cx="411480" cy="361453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A0E590-D73B-4C49-B386-3DF44590E9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4055828" y="1420633"/>
+          <a:ext cx="381000" cy="384313"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC36B13C-B7D0-4C61-A78D-376E861087CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2836628" y="1473973"/>
+          <a:ext cx="1005840" cy="593366"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA2FD90-650E-4EB7-ADE2-70A05E3BCE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2996648" y="3107303"/>
+          <a:ext cx="655320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8AEB1C-FE85-4A51-8149-DCEC46576575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2768048" y="3222266"/>
+          <a:ext cx="7620" cy="577464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277301</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292541</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDDB91E-955A-4573-A2E4-A3B910A5ECE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3921649" y="3222266"/>
+          <a:ext cx="15240" cy="506233"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E1BA72-BF33-455C-92D0-C2AAD635E228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057608" y="3814970"/>
+          <a:ext cx="601980" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589722</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566862</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>62617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5012D721-045D-46E9-9307-BD8B2FC09CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3014870" y="4030649"/>
+          <a:ext cx="586740" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE73E18-FAFB-4F88-957B-AC4EA1E58A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4017728" y="3529717"/>
+          <a:ext cx="411480" cy="361453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5ED7D4-9E0C-455B-9772-56F7CEC6AB80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4055828" y="3130163"/>
+          <a:ext cx="381000" cy="384314"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E955AF-1996-483B-96CF-69FEB9B7E0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2836628" y="3183503"/>
+          <a:ext cx="1005840" cy="593367"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14805,7 +18112,7 @@
       </c>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39" s="217" t="s">
+      <c r="C39" s="224" t="s">
         <v>533</v>
       </c>
       <c r="D39" s="91" t="s">
@@ -14821,7 +18128,7 @@
       </c>
     </row>
     <row r="40" spans="3:12" ht="18.600000000000001" thickBot="1">
-      <c r="C40" s="218"/>
+      <c r="C40" s="225"/>
       <c r="D40" s="94" t="s">
         <v>563</v>
       </c>
@@ -14835,18 +18142,18 @@
       </c>
     </row>
     <row r="41" spans="3:12" ht="36.6" customHeight="1">
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="226" t="s">
         <v>534</v>
       </c>
-      <c r="D41" s="222" t="s">
+      <c r="D41" s="229" t="s">
         <v>566</v>
       </c>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="222"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="229"/>
+      <c r="J41" s="229"/>
       <c r="K41" s="96" t="s">
         <v>567</v>
       </c>
@@ -14855,7 +18162,7 @@
       </c>
     </row>
     <row r="42" spans="3:12" ht="18.600000000000001" thickBot="1">
-      <c r="C42" s="220"/>
+      <c r="C42" s="227"/>
       <c r="D42" s="89" t="s">
         <v>563</v>
       </c>
@@ -14936,15 +18243,15 @@
       <c r="C47" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="D47" s="221" t="s">
+      <c r="D47" s="228" t="s">
         <v>577</v>
       </c>
-      <c r="E47" s="221"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="221"/>
-      <c r="H47" s="221"/>
-      <c r="I47" s="221"/>
-      <c r="J47" s="221"/>
+      <c r="E47" s="228"/>
+      <c r="F47" s="228"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="228"/>
+      <c r="I47" s="228"/>
+      <c r="J47" s="228"/>
       <c r="K47" s="94" t="s">
         <v>578</v>
       </c>
@@ -15399,8 +18706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018822D-22AF-427C-8E31-BF35238E9854}">
   <dimension ref="B2:AL69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16145,16 +19452,16 @@
       <c r="E5" s="122"/>
       <c r="F5" s="122"/>
       <c r="G5" s="122"/>
-      <c r="J5" s="223" t="s">
+      <c r="J5" s="230" t="s">
         <v>679</v>
       </c>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="223"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
     </row>
     <row r="6" spans="3:19" ht="20.399999999999999">
       <c r="D6" s="123" t="s">
@@ -16163,14 +19470,14 @@
       <c r="E6" s="122"/>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="230"/>
+      <c r="N6" s="230"/>
+      <c r="O6" s="230"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
     </row>
     <row r="7" spans="3:19" ht="20.399999999999999">
       <c r="D7" s="123" t="s">
@@ -16179,14 +19486,14 @@
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
       <c r="G7" s="122"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
     </row>
     <row r="8" spans="3:19" ht="20.399999999999999">
       <c r="D8" s="123" t="s">
@@ -16227,20 +19534,20 @@
       <c r="K11"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="J12" s="226" t="s">
+      <c r="J12" s="233" t="s">
         <v>681</v>
       </c>
-      <c r="K12" s="226"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="226" t="s">
+      <c r="K12" s="233"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="233" t="s">
         <v>682</v>
       </c>
-      <c r="O12" s="226"/>
-      <c r="P12" s="226"/>
-      <c r="Q12" s="226"/>
-      <c r="R12" s="226"/>
-      <c r="S12" s="226"/>
+      <c r="O12" s="233"/>
+      <c r="P12" s="233"/>
+      <c r="Q12" s="233"/>
+      <c r="R12" s="233"/>
+      <c r="S12" s="233"/>
     </row>
     <row r="13" spans="3:19">
       <c r="D13" s="120" t="s">
@@ -16248,20 +19555,20 @@
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="119"/>
-      <c r="J13" s="225" t="s">
+      <c r="J13" s="232" t="s">
         <v>683</v>
       </c>
-      <c r="K13" s="225"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="225"/>
-      <c r="N13" s="225" t="s">
+      <c r="K13" s="232"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="232" t="s">
         <v>684</v>
       </c>
-      <c r="O13" s="225"/>
-      <c r="P13" s="225"/>
-      <c r="Q13" s="225"/>
-      <c r="R13" s="225"/>
-      <c r="S13" s="225"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="232"/>
+      <c r="Q13" s="232"/>
+      <c r="R13" s="232"/>
+      <c r="S13" s="232"/>
     </row>
     <row r="14" spans="3:19">
       <c r="D14" s="126" t="s">
@@ -16269,44 +19576,44 @@
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="119"/>
-      <c r="J14" s="224" t="s">
+      <c r="J14" s="231" t="s">
         <v>685</v>
       </c>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224" t="s">
+      <c r="K14" s="231"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="231"/>
+      <c r="N14" s="231" t="s">
         <v>686</v>
       </c>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
+      <c r="O14" s="231"/>
+      <c r="P14" s="231"/>
+      <c r="Q14" s="231"/>
+      <c r="R14" s="231"/>
+      <c r="S14" s="231"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="J15" s="224"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="231"/>
+      <c r="P15" s="231"/>
+      <c r="Q15" s="231"/>
+      <c r="R15" s="231"/>
+      <c r="S15" s="231"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="J16" s="224"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="224"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="231"/>
+      <c r="M16" s="231"/>
+      <c r="N16" s="231"/>
+      <c r="O16" s="231"/>
+      <c r="P16" s="231"/>
+      <c r="Q16" s="231"/>
+      <c r="R16" s="231"/>
+      <c r="S16" s="231"/>
     </row>
     <row r="20" spans="3:24">
       <c r="C20" s="2" t="s">
@@ -17364,8 +20671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DF58-779D-48BC-AFC3-F7C809202780}">
   <dimension ref="E2:F139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="M27" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -18375,8 +21682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF944A9-4520-4112-9BE2-03F757CCEEC7}">
   <dimension ref="D3:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19425,7 +22732,7 @@
   <dimension ref="E2:S37"/>
   <sheetViews>
     <sheetView topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19839,6 +23146,1431 @@
     </row>
   </sheetData>
   <phoneticPr fontId="123" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6E8F4C-050C-4E13-8CD4-0038834EAC96}">
+  <dimension ref="B1:AK29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="217"/>
+    <col min="2" max="2" width="11.21875" style="217" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="217" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="217" customWidth="1"/>
+    <col min="5" max="8" width="8.88671875" style="217"/>
+    <col min="9" max="9" width="12.5546875" style="217" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="217" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="217"/>
+    <col min="13" max="13" width="16.33203125" style="217" customWidth="1"/>
+    <col min="14" max="20" width="8.88671875" style="217"/>
+    <col min="21" max="32" width="8.88671875" style="251"/>
+    <col min="33" max="16384" width="8.88671875" style="217"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37">
+      <c r="B1" s="219" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+    </row>
+    <row r="2" spans="2:37">
+      <c r="F2" s="217" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I2" s="217" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K2" s="217" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37">
+      <c r="F3" s="217" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I3" s="217" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K3" s="217" t="s">
+        <v>1298</v>
+      </c>
+      <c r="U3" s="252" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V3" s="253"/>
+      <c r="W3" s="253"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="253"/>
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="253"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="250"/>
+      <c r="AI3" s="250"/>
+      <c r="AJ3" s="250"/>
+      <c r="AK3" s="250"/>
+    </row>
+    <row r="4" spans="2:37">
+      <c r="B4" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K4" s="221" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N4" s="217" t="s">
+        <v>1301</v>
+      </c>
+      <c r="U4" s="254" t="s">
+        <v>1367</v>
+      </c>
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+      <c r="X4" s="253"/>
+      <c r="Y4" s="253"/>
+      <c r="Z4" s="253"/>
+      <c r="AA4" s="253"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="253"/>
+      <c r="AD4" s="253"/>
+      <c r="AE4" s="253"/>
+      <c r="AF4" s="253"/>
+      <c r="AG4" s="250"/>
+      <c r="AH4" s="250"/>
+      <c r="AI4" s="250"/>
+      <c r="AJ4" s="250"/>
+      <c r="AK4" s="250"/>
+    </row>
+    <row r="5" spans="2:37">
+      <c r="B5" s="49" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F5" s="217" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K5" s="217" t="s">
+        <v>1309</v>
+      </c>
+      <c r="N5" s="217" t="s">
+        <v>1303</v>
+      </c>
+      <c r="U5" s="254" t="s">
+        <v>1368</v>
+      </c>
+      <c r="V5" s="253"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="253"/>
+      <c r="Y5" s="253"/>
+      <c r="Z5" s="253"/>
+      <c r="AA5" s="253"/>
+      <c r="AB5" s="253"/>
+      <c r="AC5" s="253"/>
+      <c r="AD5" s="253"/>
+      <c r="AE5" s="253"/>
+      <c r="AF5" s="253"/>
+      <c r="AG5" s="250"/>
+      <c r="AH5" s="250"/>
+      <c r="AI5" s="250"/>
+      <c r="AJ5" s="250"/>
+      <c r="AK5" s="250"/>
+    </row>
+    <row r="6" spans="2:37">
+      <c r="B6" s="49" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C6" s="218" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F6" s="217" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I6" s="217" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K6" s="217" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N6" s="217" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U6" s="255"/>
+      <c r="V6" s="253"/>
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="253"/>
+      <c r="Z6" s="253"/>
+      <c r="AA6" s="253"/>
+      <c r="AB6" s="253"/>
+      <c r="AC6" s="253"/>
+      <c r="AD6" s="253"/>
+      <c r="AE6" s="253"/>
+      <c r="AF6" s="253"/>
+      <c r="AG6" s="250"/>
+      <c r="AH6" s="250"/>
+      <c r="AI6" s="250"/>
+      <c r="AJ6" s="250"/>
+      <c r="AK6" s="250"/>
+    </row>
+    <row r="7" spans="2:37">
+      <c r="B7" s="222" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C7" s="218" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F7" s="217" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I7" s="217" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K7" s="217" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N7" s="217" t="s">
+        <v>1302</v>
+      </c>
+      <c r="U7" s="254" t="s">
+        <v>1369</v>
+      </c>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="253"/>
+      <c r="AD7" s="253"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="250"/>
+      <c r="AH7" s="250"/>
+      <c r="AI7" s="250"/>
+      <c r="AJ7" s="250"/>
+      <c r="AK7" s="250"/>
+    </row>
+    <row r="8" spans="2:37">
+      <c r="B8" s="49" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C8" s="218" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F8" s="217" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I8" s="217" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K8" s="217" t="s">
+        <v>1311</v>
+      </c>
+      <c r="O8" s="217" t="s">
+        <v>1304</v>
+      </c>
+      <c r="U8" s="255"/>
+      <c r="V8" s="253"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="253"/>
+      <c r="AB8" s="253"/>
+      <c r="AC8" s="253"/>
+      <c r="AD8" s="253"/>
+      <c r="AE8" s="253"/>
+      <c r="AF8" s="253"/>
+      <c r="AG8" s="250"/>
+      <c r="AH8" s="250"/>
+      <c r="AI8" s="250"/>
+      <c r="AJ8" s="250"/>
+      <c r="AK8" s="250"/>
+    </row>
+    <row r="9" spans="2:37">
+      <c r="B9" s="49" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F9" s="217" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I9" s="217" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P9" s="217" t="s">
+        <v>1305</v>
+      </c>
+      <c r="U9" s="254" t="s">
+        <v>1370</v>
+      </c>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="253"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="250"/>
+      <c r="AH9" s="250"/>
+      <c r="AI9" s="250"/>
+      <c r="AJ9" s="250"/>
+      <c r="AK9" s="250"/>
+    </row>
+    <row r="10" spans="2:37">
+      <c r="B10" s="222" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C10" s="218" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F10" s="217" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I10" s="217" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K10" s="221" t="s">
+        <v>1319</v>
+      </c>
+      <c r="O10" s="217" t="s">
+        <v>1307</v>
+      </c>
+      <c r="U10" s="254" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V10" s="253"/>
+      <c r="W10" s="253"/>
+      <c r="X10" s="253"/>
+      <c r="Y10" s="253"/>
+      <c r="Z10" s="253"/>
+      <c r="AA10" s="253"/>
+      <c r="AB10" s="253"/>
+      <c r="AC10" s="253"/>
+      <c r="AD10" s="253"/>
+      <c r="AE10" s="253"/>
+      <c r="AF10" s="253"/>
+      <c r="AG10" s="250"/>
+      <c r="AH10" s="250"/>
+      <c r="AI10" s="250"/>
+      <c r="AJ10" s="250"/>
+      <c r="AK10" s="250"/>
+    </row>
+    <row r="11" spans="2:37">
+      <c r="B11" s="222" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F11" s="217" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I11" s="217" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K11" s="217" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P11" s="217" t="s">
+        <v>1308</v>
+      </c>
+      <c r="U11" s="254" t="s">
+        <v>1372</v>
+      </c>
+      <c r="V11" s="253"/>
+      <c r="W11" s="253"/>
+      <c r="X11" s="253"/>
+      <c r="Y11" s="253"/>
+      <c r="Z11" s="253"/>
+      <c r="AA11" s="253"/>
+      <c r="AB11" s="253"/>
+      <c r="AC11" s="253"/>
+      <c r="AD11" s="253"/>
+      <c r="AE11" s="253"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="250"/>
+      <c r="AH11" s="250"/>
+      <c r="AI11" s="250"/>
+      <c r="AJ11" s="250"/>
+      <c r="AK11" s="250"/>
+    </row>
+    <row r="12" spans="2:37">
+      <c r="D12" s="49" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K12" s="217" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N12" s="217" t="s">
+        <v>1315</v>
+      </c>
+      <c r="U12" s="254" t="s">
+        <v>1373</v>
+      </c>
+      <c r="V12" s="253"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="250"/>
+      <c r="AH12" s="250"/>
+      <c r="AI12" s="250"/>
+      <c r="AJ12" s="250"/>
+      <c r="AK12" s="250"/>
+    </row>
+    <row r="13" spans="2:37">
+      <c r="D13" s="49" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K13" s="217" t="s">
+        <v>1321</v>
+      </c>
+      <c r="U13" s="254" t="s">
+        <v>1374</v>
+      </c>
+      <c r="V13" s="253"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="250"/>
+      <c r="AH13" s="250"/>
+      <c r="AI13" s="250"/>
+      <c r="AJ13" s="250"/>
+      <c r="AK13" s="250"/>
+    </row>
+    <row r="14" spans="2:37">
+      <c r="K14" s="217" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U14" s="254" t="s">
+        <v>1375</v>
+      </c>
+      <c r="V14" s="253"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="253"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="253"/>
+      <c r="AF14" s="253"/>
+      <c r="AG14" s="250"/>
+      <c r="AH14" s="250"/>
+      <c r="AI14" s="250"/>
+      <c r="AJ14" s="250"/>
+      <c r="AK14" s="250"/>
+    </row>
+    <row r="15" spans="2:37">
+      <c r="K15" s="217" t="s">
+        <v>1323</v>
+      </c>
+      <c r="U15" s="254" t="s">
+        <v>1376</v>
+      </c>
+      <c r="V15" s="253"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="250"/>
+      <c r="AH15" s="250"/>
+      <c r="AI15" s="250"/>
+      <c r="AJ15" s="250"/>
+      <c r="AK15" s="250"/>
+    </row>
+    <row r="16" spans="2:37">
+      <c r="K16" s="217" t="s">
+        <v>1324</v>
+      </c>
+      <c r="U16" s="254" t="s">
+        <v>1375</v>
+      </c>
+      <c r="V16" s="253"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="250"/>
+      <c r="AH16" s="250"/>
+      <c r="AI16" s="250"/>
+      <c r="AJ16" s="250"/>
+      <c r="AK16" s="250"/>
+    </row>
+    <row r="17" spans="21:37">
+      <c r="U17" s="254" t="s">
+        <v>1377</v>
+      </c>
+      <c r="V17" s="253"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="250"/>
+      <c r="AH17" s="250"/>
+      <c r="AI17" s="250"/>
+      <c r="AJ17" s="250"/>
+      <c r="AK17" s="250"/>
+    </row>
+    <row r="18" spans="21:37">
+      <c r="U18" s="254" t="s">
+        <v>1378</v>
+      </c>
+      <c r="V18" s="253"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="250"/>
+      <c r="AH18" s="250"/>
+      <c r="AI18" s="250"/>
+      <c r="AJ18" s="250"/>
+      <c r="AK18" s="250"/>
+    </row>
+    <row r="19" spans="21:37">
+      <c r="U19" s="255"/>
+      <c r="V19" s="253"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="250"/>
+      <c r="AH19" s="250"/>
+      <c r="AI19" s="250"/>
+      <c r="AJ19" s="250"/>
+      <c r="AK19" s="250"/>
+    </row>
+    <row r="20" spans="21:37">
+      <c r="U20" s="254" t="s">
+        <v>1379</v>
+      </c>
+      <c r="V20" s="253"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="250"/>
+      <c r="AH20" s="250"/>
+      <c r="AI20" s="250"/>
+      <c r="AJ20" s="250"/>
+      <c r="AK20" s="250"/>
+    </row>
+    <row r="21" spans="21:37">
+      <c r="U21" s="254" t="s">
+        <v>1380</v>
+      </c>
+      <c r="V21" s="253"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="250"/>
+      <c r="AH21" s="250"/>
+      <c r="AI21" s="250"/>
+      <c r="AJ21" s="250"/>
+      <c r="AK21" s="250"/>
+    </row>
+    <row r="22" spans="21:37">
+      <c r="U22" s="255"/>
+      <c r="V22" s="253"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="250"/>
+      <c r="AH22" s="250"/>
+      <c r="AI22" s="250"/>
+      <c r="AJ22" s="250"/>
+      <c r="AK22" s="250"/>
+    </row>
+    <row r="23" spans="21:37">
+      <c r="U23" s="254" t="s">
+        <v>1381</v>
+      </c>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="250"/>
+      <c r="AH23" s="250"/>
+      <c r="AI23" s="250"/>
+      <c r="AJ23" s="250"/>
+      <c r="AK23" s="250"/>
+    </row>
+    <row r="24" spans="21:37">
+      <c r="U24" s="254" t="s">
+        <v>1382</v>
+      </c>
+      <c r="V24" s="253"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="250"/>
+      <c r="AH24" s="250"/>
+      <c r="AI24" s="250"/>
+      <c r="AJ24" s="250"/>
+      <c r="AK24" s="250"/>
+    </row>
+    <row r="25" spans="21:37">
+      <c r="U25" s="254" t="s">
+        <v>1383</v>
+      </c>
+      <c r="V25" s="253"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="250"/>
+      <c r="AH25" s="250"/>
+      <c r="AI25" s="250"/>
+      <c r="AJ25" s="250"/>
+      <c r="AK25" s="250"/>
+    </row>
+    <row r="26" spans="21:37">
+      <c r="U26" s="254" t="s">
+        <v>1384</v>
+      </c>
+      <c r="V26" s="253"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="250"/>
+      <c r="AH26" s="250"/>
+      <c r="AI26" s="250"/>
+      <c r="AJ26" s="250"/>
+      <c r="AK26" s="250"/>
+    </row>
+    <row r="27" spans="21:37">
+      <c r="U27" s="254" t="s">
+        <v>1385</v>
+      </c>
+      <c r="V27" s="253"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="250"/>
+      <c r="AH27" s="250"/>
+      <c r="AI27" s="250"/>
+      <c r="AJ27" s="250"/>
+      <c r="AK27" s="250"/>
+    </row>
+    <row r="28" spans="21:37">
+      <c r="U28" s="254" t="s">
+        <v>1365</v>
+      </c>
+      <c r="V28" s="253"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="250"/>
+      <c r="AH28" s="250"/>
+      <c r="AI28" s="250"/>
+      <c r="AJ28" s="250"/>
+      <c r="AK28" s="250"/>
+    </row>
+    <row r="29" spans="21:37">
+      <c r="U29" s="254" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V29" s="253"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="250"/>
+      <c r="AH29" s="250"/>
+      <c r="AI29" s="250"/>
+      <c r="AJ29" s="250"/>
+      <c r="AK29" s="250"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AECE0D-D09B-4FDC-A87C-846E3B8FC58C}">
+  <dimension ref="B3:V32"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22">
+      <c r="B3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F4" s="235" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G4" s="235" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H4" s="235" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I4" s="235" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J4" s="205" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L4" s="235" t="s">
+        <v>1343</v>
+      </c>
+      <c r="N4" s="237" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="L6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="M6" s="239" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O6" s="239" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P6" s="242" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q6" s="239" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R6" s="242">
+        <v>7</v>
+      </c>
+      <c r="S6" s="239" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T6" s="242">
+        <v>6</v>
+      </c>
+      <c r="U6" s="239" t="s">
+        <v>1338</v>
+      </c>
+      <c r="V6" s="242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C7" s="240" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D7" s="236">
+        <v>6</v>
+      </c>
+      <c r="E7" s="235"/>
+      <c r="F7" s="243" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G7" s="244">
+        <v>3</v>
+      </c>
+      <c r="H7" s="243" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M7" s="239" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O7" s="239" t="s">
+        <v>1339</v>
+      </c>
+      <c r="P7" s="248">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="239" t="s">
+        <v>1339</v>
+      </c>
+      <c r="R7" s="242">
+        <v>3</v>
+      </c>
+      <c r="S7" s="239" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T7" s="242">
+        <v>3</v>
+      </c>
+      <c r="U7" s="239" t="s">
+        <v>1339</v>
+      </c>
+      <c r="V7" s="242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15.6">
+      <c r="B8" s="240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C8" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D8" s="236">
+        <v>6</v>
+      </c>
+      <c r="E8" s="235"/>
+      <c r="F8" s="234" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H8" s="234" t="s">
+        <v>1339</v>
+      </c>
+      <c r="M8" s="239" t="s">
+        <v>1340</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O8" s="239" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P8" s="242" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q8" s="239" t="s">
+        <v>1340</v>
+      </c>
+      <c r="R8" s="242">
+        <v>4</v>
+      </c>
+      <c r="S8" s="239" t="s">
+        <v>1340</v>
+      </c>
+      <c r="T8" s="242">
+        <v>4</v>
+      </c>
+      <c r="U8" s="239" t="s">
+        <v>1340</v>
+      </c>
+      <c r="V8" s="242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="240" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C9" s="240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D9" s="236">
+        <v>3</v>
+      </c>
+      <c r="E9" s="235"/>
+      <c r="I9" s="245">
+        <v>4</v>
+      </c>
+      <c r="M9" s="239" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O9" s="239" t="s">
+        <v>1341</v>
+      </c>
+      <c r="P9" s="242">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="239" t="s">
+        <v>1341</v>
+      </c>
+      <c r="R9" s="242">
+        <v>2</v>
+      </c>
+      <c r="S9" s="239" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T9" s="242">
+        <v>2</v>
+      </c>
+      <c r="U9" s="239" t="s">
+        <v>1341</v>
+      </c>
+      <c r="V9" s="242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15.6">
+      <c r="B10" s="240" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C10" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D10" s="236">
+        <v>1</v>
+      </c>
+      <c r="E10" s="235"/>
+      <c r="F10" s="244">
+        <v>6</v>
+      </c>
+      <c r="G10" s="244">
+        <v>6</v>
+      </c>
+      <c r="H10" s="244">
+        <v>1</v>
+      </c>
+      <c r="I10" s="234" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M10" s="239" t="s">
+        <v>1342</v>
+      </c>
+      <c r="N10" s="238">
+        <v>0</v>
+      </c>
+      <c r="O10" s="239" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P10" s="242">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="239" t="s">
+        <v>1342</v>
+      </c>
+      <c r="R10" s="242">
+        <v>0</v>
+      </c>
+      <c r="S10" s="239" t="s">
+        <v>1342</v>
+      </c>
+      <c r="T10" s="242">
+        <v>0</v>
+      </c>
+      <c r="U10" s="239" t="s">
+        <v>1342</v>
+      </c>
+      <c r="V10" s="242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C11" s="240" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D11" s="236">
+        <v>2</v>
+      </c>
+      <c r="E11" s="235"/>
+      <c r="G11" s="244"/>
+      <c r="I11" s="245">
+        <v>2</v>
+      </c>
+      <c r="O11" s="241" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+    </row>
+    <row r="12" spans="2:22" ht="15.6">
+      <c r="B12" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C12" s="240" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D12" s="236">
+        <v>1</v>
+      </c>
+      <c r="E12" s="235"/>
+      <c r="F12" s="234" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G12" s="246">
+        <v>1</v>
+      </c>
+      <c r="H12" s="234" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="240" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C13" s="240" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D13" s="236">
+        <v>4</v>
+      </c>
+      <c r="E13" s="235"/>
+      <c r="F13" s="243" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G13" s="244">
+        <v>2</v>
+      </c>
+      <c r="H13" s="243" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="240" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C14" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D14" s="236">
+        <v>2</v>
+      </c>
+      <c r="E14" s="235"/>
+      <c r="M14" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="H15" s="243" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="F16" s="243" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G16" s="244">
+        <v>3</v>
+      </c>
+      <c r="H16" s="247" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.6">
+      <c r="F17" s="234" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H17" s="234" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="I18" s="245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.6">
+      <c r="B19" s="240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C19" s="240" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D19" s="236">
+        <v>6</v>
+      </c>
+      <c r="F19" s="244">
+        <v>6</v>
+      </c>
+      <c r="G19" s="244">
+        <v>6</v>
+      </c>
+      <c r="H19" s="244">
+        <v>1</v>
+      </c>
+      <c r="I19" s="234" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C20" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D20" s="236">
+        <v>6</v>
+      </c>
+      <c r="I20" s="245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.6">
+      <c r="B21" s="240" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C21" s="240" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D21" s="236">
+        <v>3</v>
+      </c>
+      <c r="F21" s="234" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G21" s="244">
+        <v>1</v>
+      </c>
+      <c r="H21" s="234" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="240" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D22" s="236">
+        <v>1</v>
+      </c>
+      <c r="F22" s="210" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G22" s="244">
+        <v>2</v>
+      </c>
+      <c r="H22" s="210" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C23" s="240" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D23" s="236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C24" s="240" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D24" s="236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="240" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C25" s="240" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D25" s="236">
+        <v>4</v>
+      </c>
+      <c r="F25" s="243" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="240" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C26" s="240" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D26" s="236">
+        <v>2</v>
+      </c>
+      <c r="F26" s="249" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G26" s="244">
+        <v>3</v>
+      </c>
+      <c r="H26" s="243" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.6">
+      <c r="F27" s="234" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H27" s="234" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="I28" s="245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.6">
+      <c r="F29" s="244">
+        <v>6</v>
+      </c>
+      <c r="G29" s="244">
+        <v>6</v>
+      </c>
+      <c r="H29" s="244">
+        <v>1</v>
+      </c>
+      <c r="I29" s="234" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="I30" s="245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15.6">
+      <c r="F31" s="234" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G31" s="244">
+        <v>1</v>
+      </c>
+      <c r="H31" s="234" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="F32" s="210" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G32" s="244">
+        <v>2</v>
+      </c>
+      <c r="H32" s="210" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="123" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DC0B38-2D2D-49EB-A686-3EB1AA0B7F67}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22265,7 +26997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE12111-D0E2-48D6-B8A9-30AEC4211B53}">
   <dimension ref="C3:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
